--- a/data/Publications.xlsx
+++ b/data/Publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phago\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phago\Desktop\New folder\CilioGenics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D3328E7-1945-467F-8F5B-C438F67C3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F155B2B-EA10-4C34-8F73-D7FB06F3E92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
+    <workbookView xWindow="1950" yWindow="2355" windowWidth="21600" windowHeight="12690" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
   <si>
     <t>Publication</t>
   </si>
@@ -213,295 +213,295 @@
     <t>Species</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22558177</t>
-  </si>
-  <si>
     <t>Table S5</t>
   </si>
   <si>
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/20932287</t>
-  </si>
-  <si>
     <t>Table S1 (Ciliogenesis)</t>
   </si>
   <si>
     <t>Paramecium tetraurelia</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15137945</t>
-  </si>
-  <si>
     <t>Table S1</t>
   </si>
   <si>
     <t>Drosophila melanogaster</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17227795</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/early/2017/04/03/123455</t>
-  </si>
-  <si>
     <t>Table S3</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/20975667</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/19429781</t>
-  </si>
-  <si>
     <t>Chlamydomonas reinhardtii</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/16525475</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplementary Figure 1 </t>
   </si>
   <si>
     <t xml:space="preserve">Trypanosoma brucei </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17187676</t>
-  </si>
-  <si>
     <t>Additional data file 3</t>
   </si>
   <si>
     <t>Caenorhabditis elegans</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29459677</t>
-  </si>
-  <si>
     <t>Table S4</t>
   </si>
   <si>
     <t>Mus musculus</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26585297</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25683721</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/ncb3201</t>
-  </si>
-  <si>
     <t>Table S2</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/ncomms11491</t>
-  </si>
-  <si>
     <t>Supplementary data file 9 and Supplementary data file 5</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17785518</t>
-  </si>
-  <si>
     <t>Tetrahymena thermophila</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/20393563</t>
-  </si>
-  <si>
     <t>Table S3 and Table S2 (the first sheet)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26595381</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17875208</t>
-  </si>
-  <si>
     <t>Table S1 and Table 3</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15137946</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/26947080/</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17971504</t>
-  </si>
-  <si>
     <t>Supplemental data (Mouse_Ciliome_Resource4)</t>
   </si>
   <si>
-    <t>https://www.cell.com/developmental-cell/abstract/S1534-5807(17)30949-8</t>
-  </si>
-  <si>
     <t>Table S1 Mammalian homologs</t>
   </si>
   <si>
     <t xml:space="preserve">Sea urchin (Strongylocentrotus purpuratus) </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/12169685</t>
-  </si>
-  <si>
     <t>Table 1, Table 2 and Table S1</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23300604</t>
-  </si>
-  <si>
     <t>Mus musculus,  Homo sapiens</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17413031</t>
-  </si>
-  <si>
     <t>Supplemental Data</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25139857</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table S1 </t>
   </si>
   <si>
     <t>Danio rerio</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23146917</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/14654843</t>
-  </si>
-  <si>
     <t>Supplementary Table A</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15916950</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/16452089</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15790967</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21045110</t>
-  </si>
-  <si>
     <t>Table S1 and Table S2</t>
   </si>
   <si>
     <t>Naegleria gruberi</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21136274</t>
-  </si>
-  <si>
     <t>Table S2 and Table S3</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24516614</t>
-  </si>
-  <si>
     <t>Table S2 (down)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/20818332</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22208660</t>
-  </si>
-  <si>
     <t>Additional file 3</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22326026</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21399614</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15964273</t>
-  </si>
-  <si>
     <t>Table S2 and  Table S4</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/18829862</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21723868</t>
-  </si>
-  <si>
     <t>Giardia lamblia</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17494944</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/18032372</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table 1 </t>
   </si>
   <si>
     <t>Rattus norvegicus</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/19086097</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rattus norvegicus </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/17932292</t>
-  </si>
-  <si>
     <t>Table S14</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21710637</t>
-  </si>
-  <si>
     <t>Table 3</t>
   </si>
   <si>
     <t>Ciona intestinalis</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/18971254</t>
-  </si>
-  <si>
     <t>http://centrosome.cnb.csic.es/human/centrosome/download</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/15998802</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chlamydomonas reinhardtii </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/21740898</t>
-  </si>
-  <si>
     <t>Figure S2</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/19011629</t>
-  </si>
-  <si>
     <t>Xenopus laevis</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23725226</t>
-  </si>
-  <si>
     <t>Additional file 2</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22558177/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20932287/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31095607/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26167768/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15137945</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17227795</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20975667</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19429781</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16525475</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17187676</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29459677</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26585297</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25683721</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27173435/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17785518</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20393563</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26595381</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17875208</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15137946</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17971504</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29257953/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12169685</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23300604</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17413031</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25139857</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23146917</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21723868</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15916950</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20818332</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18971254</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21740898</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24516614</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17494944</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21399614</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19086097</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23725226</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15790967</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21136274</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18032372</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21045110</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/14654843</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22326026</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15998802</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15964273</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21710637</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19011629</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18829862</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22208660</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16452089</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17932292</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,14 +856,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390894B6-E817-4279-91CD-19AB430EDF11}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" customWidth="1"/>
   </cols>
@@ -897,14 +899,14 @@
       <c r="C2">
         <v>2012</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,14 +919,14 @@
       <c r="C3">
         <v>2010</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,14 +939,14 @@
       <c r="C4">
         <v>2004</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,14 +959,14 @@
       <c r="C5">
         <v>2007</v>
       </c>
-      <c r="D5" t="s">
-        <v>69</v>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,14 +979,14 @@
       <c r="C6">
         <v>2017</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,14 +999,14 @@
       <c r="C7">
         <v>2010</v>
       </c>
-      <c r="D7" t="s">
-        <v>72</v>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,14 +1019,14 @@
       <c r="C8">
         <v>2009</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,14 +1039,14 @@
       <c r="C9">
         <v>2006</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,14 +1059,14 @@
       <c r="C10">
         <v>2006</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
+      <c r="D10" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,14 +1079,14 @@
       <c r="C11">
         <v>2018</v>
       </c>
-      <c r="D11" t="s">
-        <v>81</v>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,14 +1099,14 @@
       <c r="C12">
         <v>2015</v>
       </c>
-      <c r="D12" t="s">
-        <v>84</v>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,14 +1119,14 @@
       <c r="C13">
         <v>2015</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
+      <c r="D13" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,14 +1139,14 @@
       <c r="C14">
         <v>2015</v>
       </c>
-      <c r="D14" t="s">
-        <v>86</v>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,14 +1159,14 @@
       <c r="C15">
         <v>2017</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,14 +1179,14 @@
       <c r="C16">
         <v>2016</v>
       </c>
-      <c r="D16" t="s">
-        <v>88</v>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,14 +1199,14 @@
       <c r="C17">
         <v>2007</v>
       </c>
-      <c r="D17" t="s">
-        <v>90</v>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,14 +1219,14 @@
       <c r="C18">
         <v>2010</v>
       </c>
-      <c r="D18" t="s">
-        <v>92</v>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,14 +1239,14 @@
       <c r="C19">
         <v>2015</v>
       </c>
-      <c r="D19" t="s">
-        <v>94</v>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,14 +1259,14 @@
       <c r="C20">
         <v>2007</v>
       </c>
-      <c r="D20" t="s">
-        <v>95</v>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,14 +1279,14 @@
       <c r="C21">
         <v>2004</v>
       </c>
-      <c r="D21" t="s">
-        <v>97</v>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,13 +1300,13 @@
         <v>2016</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,14 +1319,14 @@
       <c r="C23">
         <v>2008</v>
       </c>
-      <c r="D23" t="s">
-        <v>99</v>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,14 +1339,14 @@
       <c r="C24">
         <v>2017</v>
       </c>
-      <c r="D24" t="s">
-        <v>101</v>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,14 +1359,14 @@
       <c r="C25">
         <v>2002</v>
       </c>
-      <c r="D25" t="s">
-        <v>104</v>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,14 +1379,14 @@
       <c r="C26">
         <v>2012</v>
       </c>
-      <c r="D26" t="s">
-        <v>106</v>
+      <c r="D26" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,14 +1399,14 @@
       <c r="C27">
         <v>2007</v>
       </c>
-      <c r="D27" t="s">
-        <v>108</v>
+      <c r="D27" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,14 +1419,14 @@
       <c r="C28">
         <v>2014</v>
       </c>
-      <c r="D28" t="s">
-        <v>110</v>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,14 +1439,14 @@
       <c r="C29">
         <v>2013</v>
       </c>
-      <c r="D29" t="s">
-        <v>113</v>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,14 +1459,14 @@
       <c r="C30">
         <v>2011</v>
       </c>
-      <c r="D30" t="s">
-        <v>134</v>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,11 +1479,14 @@
       <c r="C31">
         <v>2005</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
+      <c r="D31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,14 +1499,14 @@
       <c r="C32">
         <v>2010</v>
       </c>
-      <c r="D32" t="s">
-        <v>126</v>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,14 +1519,14 @@
       <c r="C33">
         <v>2009</v>
       </c>
-      <c r="D33" t="s">
-        <v>147</v>
+      <c r="D33" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,14 +1539,14 @@
       <c r="C34">
         <v>2011</v>
       </c>
-      <c r="D34" t="s">
-        <v>151</v>
+      <c r="D34" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,14 +1559,14 @@
       <c r="C35">
         <v>2014</v>
       </c>
-      <c r="D35" t="s">
-        <v>124</v>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,14 +1579,14 @@
       <c r="C36">
         <v>2007</v>
       </c>
-      <c r="D36" t="s">
-        <v>136</v>
+      <c r="D36" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1594,14 +1599,14 @@
       <c r="C37">
         <v>2011</v>
       </c>
-      <c r="D37" t="s">
-        <v>130</v>
+      <c r="D37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
         <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,14 +1619,14 @@
       <c r="C38">
         <v>2009</v>
       </c>
-      <c r="D38" t="s">
-        <v>140</v>
+      <c r="D38" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,14 +1639,14 @@
       <c r="C39">
         <v>2013</v>
       </c>
-      <c r="D39" t="s">
-        <v>155</v>
+      <c r="D39" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,14 +1659,14 @@
       <c r="C40">
         <v>2005</v>
       </c>
-      <c r="D40" t="s">
-        <v>118</v>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,14 +1679,14 @@
       <c r="C41">
         <v>2017</v>
       </c>
-      <c r="D41" t="s">
-        <v>70</v>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,14 +1699,14 @@
       <c r="C42">
         <v>2011</v>
       </c>
-      <c r="D42" t="s">
-        <v>122</v>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,14 +1719,14 @@
       <c r="C43">
         <v>2008</v>
       </c>
-      <c r="D43" t="s">
-        <v>137</v>
+      <c r="D43" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,14 +1739,14 @@
       <c r="C44">
         <v>2010</v>
       </c>
-      <c r="D44" t="s">
-        <v>119</v>
+      <c r="D44" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,14 +1759,14 @@
       <c r="C45">
         <v>2003</v>
       </c>
-      <c r="D45" t="s">
-        <v>114</v>
+      <c r="D45" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,14 +1779,14 @@
       <c r="C46">
         <v>2012</v>
       </c>
-      <c r="D46" t="s">
-        <v>129</v>
+      <c r="D46" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,14 +1799,14 @@
       <c r="C47">
         <v>2005</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,14 +1819,14 @@
       <c r="C48">
         <v>2005</v>
       </c>
-      <c r="D48" t="s">
-        <v>131</v>
+      <c r="D48" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,14 +1839,14 @@
       <c r="C49">
         <v>2011</v>
       </c>
-      <c r="D49" t="s">
-        <v>144</v>
+      <c r="D49" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,14 +1859,14 @@
       <c r="C50">
         <v>2008</v>
       </c>
-      <c r="D50" t="s">
-        <v>153</v>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,11 +1879,14 @@
       <c r="C51">
         <v>2005</v>
       </c>
-      <c r="D51" t="s">
-        <v>116</v>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,14 +1899,14 @@
       <c r="C52">
         <v>2008</v>
       </c>
-      <c r="D52" t="s">
-        <v>133</v>
+      <c r="D52" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,14 +1919,14 @@
       <c r="C53">
         <v>2011</v>
       </c>
-      <c r="D53" t="s">
-        <v>127</v>
+      <c r="D53" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,14 +1939,14 @@
       <c r="C54">
         <v>2006</v>
       </c>
-      <c r="D54" t="s">
-        <v>117</v>
+      <c r="D54" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,14 +1959,14 @@
       <c r="C55">
         <v>2007</v>
       </c>
-      <c r="D55" t="s">
-        <v>142</v>
+      <c r="D55" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/Publications.xlsx
+++ b/data/Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phago\Desktop\New folder\CilioGenics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master\CilioGenics-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F155B2B-EA10-4C34-8F73-D7FB06F3E92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805333FA-86C4-4DEA-B5D8-5F5C829B0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2355" windowWidth="21600" windowHeight="12690" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
+    <workbookView xWindow="810" yWindow="1170" windowWidth="21750" windowHeight="12690" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
   <si>
     <t>Publication</t>
   </si>
@@ -189,9 +183,6 @@
     <t>Hodges ME. et al.</t>
   </si>
   <si>
-    <t>David K. Breslow et al.</t>
-  </si>
-  <si>
     <t>Cao W. et al.</t>
   </si>
   <si>
@@ -502,16 +493,39 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/17932292</t>
+  </si>
+  <si>
+    <t>Roosing et al.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26026149/</t>
+  </si>
+  <si>
+    <t>Breslow et al.</t>
+  </si>
+  <si>
+    <t>May et al.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33856408/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,14 +548,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390894B6-E817-4279-91CD-19AB430EDF11}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,16 +894,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,13 +917,13 @@
         <v>2012</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,13 +937,13 @@
         <v>2010</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,18 +957,18 @@
         <v>2004</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -960,13 +977,13 @@
         <v>2007</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,13 +997,13 @@
         <v>2017</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,13 +1017,13 @@
         <v>2010</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,13 +1037,13 @@
         <v>2009</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,13 +1057,13 @@
         <v>2006</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,41 +1077,41 @@
         <v>2006</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2015</v>
@@ -1103,221 +1120,221 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>2015</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>2004</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>2016</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>2016</v>
-      </c>
-      <c r="D22" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>126</v>
@@ -1326,78 +1343,78 @@
         <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
         <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>130</v>
@@ -1406,395 +1423,395 @@
         <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C29">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C42">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>2005</v>
@@ -1803,130 +1820,130 @@
         <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C49">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C50">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C53">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,42 +1951,83 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C54">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="B55">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>156</v>
       </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
+      <c r="B56">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>2015</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>2021</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Publications.xlsx
+++ b/data/Publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master\CilioGenics-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B351E8F-143A-4FBD-B0A7-A1F6FB71ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E871EF-6791-47A8-A9F3-BA6F02BCE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="1260" windowWidth="21750" windowHeight="12690" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
+    <workbookView xWindow="345" yWindow="600" windowWidth="21600" windowHeight="12690" xr2:uid="{DFEF4FB6-553F-41C6-A192-66B5599F6299}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t>Identification of novel regulatory factor X (RFX) target genes by comparative genomics in Drosophila species</t>
   </si>
   <si>
-    <t>Laurençon et al.</t>
-  </si>
-  <si>
     <t>Comparative genomics identifies a flagellar and basal body proteome that includes the BBS5 human disease gene</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>Nogales-Cadenas et al.</t>
   </si>
   <si>
-    <t>Müller et al.</t>
-  </si>
-  <si>
     <t>Transcriptional profiling of C. elegans DAF-19 uncovers a ciliary base-associated protein and a CDK/CCRK/LF2p-related kinase required for intraflagellar transport</t>
   </si>
   <si>
@@ -673,6 +667,12 @@
   </si>
   <si>
     <t>SYSCILIA Gold Standard (van Dam et al.)</t>
+  </si>
+  <si>
+    <t>Muller et al.</t>
+  </si>
+  <si>
+    <t>Laurencon et al.</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390894B6-E817-4279-91CD-19AB430EDF11}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1223,12 +1223,12 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1292,12 +1292,12 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1499,12 +1499,12 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1522,7 +1522,7 @@
         <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,12 +1591,12 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1614,12 +1614,12 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1637,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,12 +1729,12 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1752,12 +1752,12 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -1890,12 +1890,12 @@
         <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -1913,12 +1913,12 @@
         <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -1936,12 +1936,12 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -1959,12 +1959,12 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -1982,12 +1982,12 @@
         <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41">
         <v>43</v>
@@ -2005,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B43">
         <v>45</v>
@@ -2051,12 +2051,12 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44">
         <v>46</v>
@@ -2074,12 +2074,12 @@
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B45">
         <v>47</v>
@@ -2097,12 +2097,12 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46">
         <v>48</v>
@@ -2120,12 +2120,12 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47">
         <v>49</v>
@@ -2143,12 +2143,12 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48">
         <v>50</v>
@@ -2166,12 +2166,12 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B49">
         <v>51</v>
@@ -2189,12 +2189,12 @@
         <v>62</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50">
         <v>52</v>
@@ -2212,12 +2212,12 @@
         <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B51">
         <v>53</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -2258,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,12 +2281,12 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B54">
         <v>59</v>
@@ -2304,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,12 +2327,12 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B56">
         <v>57</v>
@@ -2350,7 +2350,7 @@
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
